--- a/SevenMartSuperMarketRealProject/src/test/resources/TestData.xlsx
+++ b/SevenMartSuperMarketRealProject/src/test/resources/TestData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chandrashekhar\Downloads\java eclipse\SevenMartSuperMarketRealProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chandrashekhar\git\SevenMartProject\SevenMartSuperMarketRealProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="7884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPageName" sheetId="2" r:id="rId2"/>
     <sheet name="AdminUserSearch" sheetId="3" r:id="rId3"/>
+    <sheet name="AddCategory" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Akhila</t>
-  </si>
-  <si>
     <t>Sandra</t>
   </si>
   <si>
@@ -56,6 +54,15 @@
   </si>
   <si>
     <t>staff</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Sree</t>
   </si>
 </sst>
 </file>
@@ -444,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +467,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>234</v>
@@ -475,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +498,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -499,14 +506,42 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>